--- a/spliced/falling/2023-03-25_18-00-41/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-41/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2409510612487792</v>
+        <v>-0.2734694480895995</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1118493080139161</v>
+        <v>0.2277572751045226</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9796984493732455</v>
+        <v>-0.1111783366650344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0387899428606033</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2247984111309051</v>
+        <v>-0.0009162978967650999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1269072592258453</v>
+        <v>0.007177666760981</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2510995864868166</v>
+        <v>-0.2649335861206055</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.486978173255921</v>
+        <v>0.1057968139648434</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.576653569936753</v>
+        <v>-0.4681921228766454</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1467603743076324</v>
+        <v>0.0155770638957619</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3396410644054413</v>
+        <v>-0.046578474342823</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0708603709936142</v>
+        <v>0.0195476878434419</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6032696366310117</v>
+        <v>-0.2409510612487792</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.231355071067809</v>
+        <v>-0.1118493080139161</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.578479379415512</v>
+        <v>-0.9796984493732455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0829249545931816</v>
+        <v>0.0387899428606033</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4129449129104614</v>
+        <v>-0.2247984111309051</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1215621829032898</v>
+        <v>0.1269072592258453</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.619264602661135</v>
+        <v>-0.2510995864868166</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.441695690155029</v>
+        <v>-0.486978173255921</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.719687700271603</v>
+        <v>-1.576653569936753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2186897546052932</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2243402600288391</v>
+        <v>-0.3396410644054413</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5036584138870239</v>
+        <v>0.0708603709936142</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.381728231906894</v>
+        <v>-0.6032696366310117</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.565002083778382</v>
+        <v>-1.231355071067809</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.358269900083537</v>
+        <v>-2.578479379415512</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2626720666885376</v>
+        <v>0.0829249545931816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.047036625444889</v>
+        <v>-0.4129449129104614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1678352206945419</v>
+        <v>0.1215621829032898</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-5.973035097122198</v>
+        <v>-1.619264602661135</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.110213756561278</v>
+        <v>-2.441695690155029</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.457903444766998</v>
+        <v>-3.719687700271603</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2110539376735687</v>
+        <v>0.2186897546052932</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9388998746871948</v>
+        <v>-0.2243402600288391</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.7550294399261475</v>
+        <v>0.5036584138870239</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.563721001148222</v>
+        <v>-2.381728231906894</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09978815913199934</v>
+        <v>-2.565002083778382</v>
       </c>
       <c r="E8" t="n">
-        <v>4.150949925184262</v>
+        <v>-2.358269900083537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06963863968849179</v>
+        <v>0.2626720666885376</v>
       </c>
       <c r="G8" t="n">
-        <v>1.037860035896301</v>
+        <v>0.047036625444889</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.770426511764526</v>
+        <v>0.1678352206945419</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.282882690429686</v>
+        <v>-5.973035097122198</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.261756420135502</v>
+        <v>-2.110213756561278</v>
       </c>
       <c r="E9" t="n">
-        <v>2.734083533287039</v>
+        <v>-1.457903444766998</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3165809214115143</v>
+        <v>-0.2110539376735687</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.475086808204651</v>
+        <v>0.9388998746871948</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.813048005104065</v>
+        <v>-0.7550294399261475</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.164603590965351</v>
+        <v>-6.563721001148222</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.793649584054942</v>
+        <v>-0.09978815913199934</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.379950404167178</v>
+        <v>4.150949925184262</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.540435791015625</v>
+        <v>0.06963863968849179</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.590180397033691</v>
+        <v>1.037860035896301</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3164281845092773</v>
+        <v>-2.770426511764526</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.43860530853263</v>
+        <v>-5.282882690429686</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.050572410225862</v>
+        <v>-1.261756420135502</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.420871347188941</v>
+        <v>2.734083533287039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2667953968048095</v>
+        <v>-0.3165809214115143</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7530441284179688</v>
+        <v>-1.475086808204651</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5949827432632446</v>
+        <v>-1.813048005104065</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.062002182006829</v>
+        <v>8.164603590965351</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4258993379771697</v>
+        <v>-2.793649584054942</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4806351810693823</v>
+        <v>-2.379950404167178</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5946773290634155</v>
+        <v>-2.540435791015625</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5623014569282532</v>
+        <v>-5.590180397033691</v>
       </c>
       <c r="H12" t="n">
-        <v>0.265573650598526</v>
+        <v>0.3164281845092773</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4846687316894513</v>
+        <v>21.43860530853263</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1213221848010993</v>
+        <v>-1.050572410225862</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.595732927322378</v>
+        <v>-2.420871347188941</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2397646158933639</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2414444833993911</v>
+        <v>0.7530441284179688</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8886561989784241</v>
+        <v>0.5949827432632446</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08941352367401095</v>
+        <v>-1.062002182006829</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3872085474431518</v>
+        <v>0.4258993379771697</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3984570652246462</v>
+        <v>-0.4806351810693823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3083342313766479</v>
+        <v>0.5946773290634155</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1081231459975242</v>
+        <v>0.5623014569282532</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2041817009449005</v>
+        <v>0.265573650598526</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.08465456962585466</v>
+        <v>0.4846687316894513</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3168411925435065</v>
+        <v>0.1213221848010993</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5556480586528784</v>
+        <v>-2.595732927322378</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0649044290184974</v>
+        <v>-0.2397646158933639</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2634356319904327</v>
+        <v>-0.2414444833993911</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0945313945412635</v>
+        <v>-0.8886561989784241</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.01035583019256567</v>
+        <v>0.08941352367401095</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3797534666955474</v>
+        <v>-0.3872085474431518</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1080728322267551</v>
+        <v>-0.3984570652246462</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0543670058250427</v>
+        <v>0.3083342313766479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1363756656646728</v>
+        <v>0.1081231459975242</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0697913542389869</v>
+        <v>0.2041817009449005</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1875557899475107</v>
+        <v>-0.08465456962585466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1313613653183006</v>
+        <v>-0.3168411925435065</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1621772050857527</v>
+        <v>-0.5556480586528784</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08918632566928859</v>
+        <v>0.0649044290184974</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3081815242767334</v>
+        <v>0.2634356319904327</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1731802970170974</v>
+        <v>0.0945313945412635</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.3808972835540768</v>
+        <v>-0.01035583019256567</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5183635354042041</v>
+        <v>-0.3797534666955474</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1794230192899697</v>
+        <v>0.1080728322267551</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0502436682581901</v>
+        <v>-0.0543670058250427</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1233947798609733</v>
+        <v>0.1363756656646728</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0299323964864015</v>
+        <v>0.0697913542389869</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1947205066680908</v>
+        <v>-0.1875557899475107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2465647608041763</v>
+        <v>0.1313613653183006</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0424161478877067</v>
+        <v>0.1621772050857527</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0731511116027832</v>
+        <v>-0.08918632566928859</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2703078687191009</v>
+        <v>-0.3081815242767334</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0377209298312664</v>
+        <v>-0.1731802970170974</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.09789943695068341</v>
+        <v>-0.3808972835540768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3452561050653447</v>
+        <v>0.5183635354042041</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.131537172943354</v>
+        <v>-0.1794230192899697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0568104684352874</v>
+        <v>-0.0502436682581901</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1012509167194366</v>
+        <v>-0.1233947798609733</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0526871271431446</v>
+        <v>-0.0299323964864015</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05506801605224545</v>
+        <v>-0.1947205066680908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07766664028167738</v>
+        <v>0.2465647608041763</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2464380264282224</v>
+        <v>-0.0424161478877067</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0032070425804704</v>
+        <v>0.0731511116027832</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0478002056479454</v>
+        <v>0.2703078687191009</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.024892758578062</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.06795549392700258</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1180151626467706</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.2082828953862188</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0117591563612222</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0113010071218013</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0294742472469806</v>
+        <v>0.0377209298312664</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-00-41/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-41/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2734694480895995</v>
+        <v>-0.01334476470947288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2277572751045226</v>
+        <v>0.1471533775329589</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1111783366650344</v>
+        <v>-0.2691573500633239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0204639863222837</v>
+        <v>-0.0074830991216003</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0009162978967650999</v>
+        <v>0.0424551330506801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007177666760981</v>
+        <v>0.0247400421649217</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2649335861206055</v>
+        <v>-0.2625431418418885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1057968139648434</v>
+        <v>0.13736093044281</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4681921228766454</v>
+        <v>-0.1842701695859431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0155770638957619</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.046578474342823</v>
+        <v>0.0197004042565822</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0195476878434419</v>
+        <v>0.0239764600992202</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2409510612487792</v>
+        <v>-0.3044750690460205</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1118493080139161</v>
+        <v>0.2236802577972413</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9796984493732455</v>
+        <v>-0.08151795715093602</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0387899428606033</v>
+        <v>0.0056505035609006</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2247984111309051</v>
+        <v>-0.0122173046693205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1269072592258453</v>
+        <v>0.009315694682300001</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.2510995864868166</v>
+        <v>-0.2734694480895995</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.486978173255921</v>
+        <v>0.2277572751045226</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.576653569936753</v>
+        <v>-0.1111783366650344</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1467603743076324</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3396410644054413</v>
+        <v>-0.0009162978967650999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0708603709936142</v>
+        <v>0.007177666760981</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6032696366310117</v>
+        <v>-0.2649335861206055</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.231355071067809</v>
+        <v>0.1057968139648434</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.578479379415512</v>
+        <v>-0.4681921228766454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0829249545931816</v>
+        <v>0.0155770638957619</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4129449129104614</v>
+        <v>-0.046578474342823</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1215621829032898</v>
+        <v>0.0195476878434419</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.619264602661135</v>
+        <v>-0.2409510612487792</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.441695690155029</v>
+        <v>-0.1118493080139161</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.719687700271603</v>
+        <v>-0.9796984493732455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2186897546052932</v>
+        <v>0.0387899428606033</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2243402600288391</v>
+        <v>-0.2247984111309051</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5036584138870239</v>
+        <v>0.1269072592258453</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.381728231906894</v>
+        <v>-0.2510995864868166</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.565002083778382</v>
+        <v>-0.486978173255921</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.358269900083537</v>
+        <v>-1.576653569936753</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2626720666885376</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="G8" t="n">
-        <v>0.047036625444889</v>
+        <v>-0.3396410644054413</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1678352206945419</v>
+        <v>0.0708603709936142</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.973035097122198</v>
+        <v>-0.6032696366310117</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.110213756561278</v>
+        <v>-1.231355071067809</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.457903444766998</v>
+        <v>-2.578479379415512</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2110539376735687</v>
+        <v>0.0829249545931816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9388998746871948</v>
+        <v>-0.4129449129104614</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7550294399261475</v>
+        <v>0.1215621829032898</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.563721001148222</v>
+        <v>-1.619264602661135</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09978815913199934</v>
+        <v>-2.441695690155029</v>
       </c>
       <c r="E10" t="n">
-        <v>4.150949925184262</v>
+        <v>-3.719687700271603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06963863968849179</v>
+        <v>0.2186897546052932</v>
       </c>
       <c r="G10" t="n">
-        <v>1.037860035896301</v>
+        <v>-0.2243402600288391</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.770426511764526</v>
+        <v>0.5036584138870239</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.282882690429686</v>
+        <v>-2.381728231906894</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.261756420135502</v>
+        <v>-2.565002083778382</v>
       </c>
       <c r="E11" t="n">
-        <v>2.734083533287039</v>
+        <v>-2.358269900083537</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3165809214115143</v>
+        <v>0.2626720666885376</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.475086808204651</v>
+        <v>0.047036625444889</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.813048005104065</v>
+        <v>0.1678352206945419</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.164603590965351</v>
+        <v>-5.973035097122198</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.793649584054942</v>
+        <v>-2.110213756561278</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.379950404167178</v>
+        <v>-1.457903444766998</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.540435791015625</v>
+        <v>-0.2110539376735687</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.590180397033691</v>
+        <v>0.9388998746871948</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3164281845092773</v>
+        <v>-0.7550294399261475</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.43860530853263</v>
+        <v>-6.563721001148222</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.050572410225862</v>
+        <v>-0.09978815913199934</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.420871347188941</v>
+        <v>4.150949925184262</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2667953968048095</v>
+        <v>0.06963863968849179</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7530441284179688</v>
+        <v>1.037860035896301</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5949827432632446</v>
+        <v>-2.770426511764526</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.062002182006829</v>
+        <v>-5.282882690429686</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4258993379771697</v>
+        <v>-1.261756420135502</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4806351810693823</v>
+        <v>2.734083533287039</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5946773290634155</v>
+        <v>-0.3165809214115143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5623014569282532</v>
+        <v>-1.475086808204651</v>
       </c>
       <c r="H14" t="n">
-        <v>0.265573650598526</v>
+        <v>-1.813048005104065</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4846687316894513</v>
+        <v>8.164603590965351</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1213221848010993</v>
+        <v>-2.793649584054942</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.595732927322378</v>
+        <v>-2.379950404167178</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2397646158933639</v>
+        <v>-2.540435791015625</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2414444833993911</v>
+        <v>-5.590180397033691</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.8886561989784241</v>
+        <v>0.3164281845092773</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08941352367401095</v>
+        <v>21.43860530853263</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3872085474431518</v>
+        <v>-1.050572410225862</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3984570652246462</v>
+        <v>-2.420871347188941</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3083342313766479</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1081231459975242</v>
+        <v>0.7530441284179688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2041817009449005</v>
+        <v>0.5949827432632446</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.08465456962585466</v>
+        <v>-1.062002182006829</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3168411925435065</v>
+        <v>0.4258993379771697</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5556480586528784</v>
+        <v>-0.4806351810693823</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0649044290184974</v>
+        <v>0.5946773290634155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2634356319904327</v>
+        <v>0.5623014569282532</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0945313945412635</v>
+        <v>0.265573650598526</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01035583019256567</v>
+        <v>0.4846687316894513</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3797534666955474</v>
+        <v>0.1213221848010993</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1080728322267551</v>
+        <v>-2.595732927322378</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0543670058250427</v>
+        <v>-0.2397646158933639</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1363756656646728</v>
+        <v>-0.2414444833993911</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0697913542389869</v>
+        <v>-0.8886561989784241</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1875557899475107</v>
+        <v>0.08941352367401095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1313613653183006</v>
+        <v>-0.3872085474431518</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1621772050857527</v>
+        <v>-0.3984570652246462</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.08918632566928859</v>
+        <v>0.3083342313766479</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3081815242767334</v>
+        <v>0.1081231459975242</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1731802970170974</v>
+        <v>0.2041817009449005</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3808972835540768</v>
+        <v>-0.08465456962585466</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5183635354042041</v>
+        <v>-0.3168411925435065</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1794230192899697</v>
+        <v>-0.5556480586528784</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0502436682581901</v>
+        <v>0.0649044290184974</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1233947798609733</v>
+        <v>0.2634356319904327</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0299323964864015</v>
+        <v>0.0945313945412635</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.01035583019256567</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.3797534666955474</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1080728322267551</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0543670058250427</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1363756656646728</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0697913542389869</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1875557899475107</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1313613653183006</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1621772050857527</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.08918632566928859</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3081815242767334</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1731802970170974</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3808972835540768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5183635354042041</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.1794230192899697</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0502436682581901</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1233947798609733</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.0299323964864015</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>-0.1947205066680908</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>0.2465647608041763</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-0.0424161478877067</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>0.0731511116027832</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>0.2703078687191009</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>0.0377209298312664</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.09789943695068341</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3452561050653447</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.131537172943354</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0568104684352874</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1012509167194366</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0526871271431446</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05506801605224545</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.07766664028167738</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.2464380264282224</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0032070425804704</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0478002056479454</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.024892758578062</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.06795549392700258</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1180151626467706</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.2082828953862188</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0117591563612222</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0113010071218013</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0294742472469806</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.01404476165771439</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2834141030907641</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.1360972765833135</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0128281703218817</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0500909499824047</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0126754539087414</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.01649236679077155</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2205449156463143</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.119759158231318</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0056505035609006</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0193949714303016</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0198531206697225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.003359794616699139</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1425043791532516</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1422623544931412</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0088575463742017</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0649044290184974</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0067195175215601</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02320241928100578</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1721755955368283</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.1290906090289352</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0021380283869802</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01328631862998</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0001527163112768</v>
       </c>
     </row>
   </sheetData>
